--- a/SystemRequirements/Case Scenario.xlsx
+++ b/SystemRequirements/Case Scenario.xlsx
@@ -3,8 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Search" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Search MallStore" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Profile" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Review store" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Directions" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Store" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
   <si>
     <t>Use Case Title</t>
   </si>
   <si>
-    <t>Search</t>
+    <t>Search Mall/Store</t>
   </si>
   <si>
     <t>Primaray Actor</t>
@@ -29,7 +32,7 @@
     <t>Level</t>
   </si>
   <si>
-    <t>Full Descroption</t>
+    <t>Full Description</t>
   </si>
   <si>
     <t>Stakeholders:</t>
@@ -38,13 +41,10 @@
     <t>Precondition:</t>
   </si>
   <si>
-    <t>User must own app</t>
-  </si>
-  <si>
     <t>Postcondition</t>
   </si>
   <si>
-    <t>User can search</t>
+    <t>results shown</t>
   </si>
   <si>
     <t>Trigger:</t>
@@ -62,10 +62,10 @@
     <t>System</t>
   </si>
   <si>
-    <t>User searches store/mall in seach bar</t>
-  </si>
-  <si>
-    <t>1.1 Displays store/mall</t>
+    <t>User searches store/mall in seach bar using specific key words</t>
+  </si>
+  <si>
+    <t>1.1 Displays store/mall nearby users location</t>
   </si>
   <si>
     <t>User clicks despired store/mall</t>
@@ -74,10 +74,7 @@
     <t>2.1 Displays store info</t>
   </si>
   <si>
-    <t>2.2 Displays directions to store/mall</t>
-  </si>
-  <si>
-    <t>2.3 Displays reviews for store/mall</t>
+    <t>2.2 Displays reviews for store/mall</t>
   </si>
   <si>
     <t>User hits "Go" button for directions to mall/store</t>
@@ -89,28 +86,16 @@
     <t>Exceptions</t>
   </si>
   <si>
-    <t>If user doesn't use search bar, no stores and or malls will come up in search</t>
-  </si>
-  <si>
-    <t>If user wants to leave review for store/mall, must click on reviews tab</t>
-  </si>
-  <si>
-    <t>If user doesn't click the "Go" button no directions will show for store/mall</t>
-  </si>
-  <si>
-    <t>Profile</t>
+    <t>Create Profile</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>User has profile</t>
-  </si>
-  <si>
-    <t>Profile, user has own personal profile</t>
-  </si>
-  <si>
-    <t>user opens app, sign up/login icon appears</t>
+    <t>Profile created</t>
+  </si>
+  <si>
+    <t>user wants to create a profile</t>
   </si>
   <si>
     <t>1.1 Displays login/sign up screen for user</t>
@@ -122,7 +107,10 @@
     <t>2.1 Textbox appears to enter name and information</t>
   </si>
   <si>
-    <t>2.2 Profile picture is availble to input</t>
+    <t>User enters name, email, password, profile picture</t>
+  </si>
+  <si>
+    <t>3.1 Saves name, email, password</t>
   </si>
   <si>
     <t>User selects done button</t>
@@ -143,35 +131,164 @@
     <t>5.1 Profile is created</t>
   </si>
   <si>
-    <t>User selects edit profile</t>
-  </si>
-  <si>
-    <t>6.1 Displays profile name</t>
-  </si>
-  <si>
-    <t>6.2 Displays profile picture</t>
-  </si>
-  <si>
-    <t>6.3 Displays favorites, +/- feature</t>
-  </si>
-  <si>
-    <t>If user doesn't download app, can't login nor signup</t>
-  </si>
-  <si>
-    <t>If user doesn't input name and informtation, profile will not be created</t>
-  </si>
-  <si>
-    <t>If user doesn't choose a profile picture then dault Mall Mapz logo will be given</t>
-  </si>
-  <si>
-    <t>If no favorites are chosen then no favorites will be displayed</t>
+    <t>5.2 Displays profile name</t>
+  </si>
+  <si>
+    <t>5.3 Displays profile picture</t>
+  </si>
+  <si>
+    <t>5.4 Displays favorites, +/- feature</t>
+  </si>
+  <si>
+    <t>If user doesn't choose a profile picture then default Mall Mapz logo will be given</t>
+  </si>
+  <si>
+    <t>Review store</t>
+  </si>
+  <si>
+    <t>Review shared, rating of store updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User wants to view or share review </t>
+  </si>
+  <si>
+    <t>User clicks on search</t>
+  </si>
+  <si>
+    <t>1.1 Opens search tab for user to use</t>
+  </si>
+  <si>
+    <t>1.2 System uses users location for nearest stores and displays on screen</t>
+  </si>
+  <si>
+    <t>User types specific key words for the store</t>
+  </si>
+  <si>
+    <t>2.1 List of names of stores appear</t>
+  </si>
+  <si>
+    <t>User selects store to view</t>
+  </si>
+  <si>
+    <t>3.1 System opens the desired store information for user</t>
+  </si>
+  <si>
+    <t>3.2 Stores description, information and reviews are in view</t>
+  </si>
+  <si>
+    <t>User selects reviews tab for store</t>
+  </si>
+  <si>
+    <t>4.1 Review page appears on screen</t>
+  </si>
+  <si>
+    <t>4.2 List of previous reviews are shown</t>
+  </si>
+  <si>
+    <t>User clicks "write a review" on store</t>
+  </si>
+  <si>
+    <t>5.1 System displays a text box with a limit of 100 characters</t>
+  </si>
+  <si>
+    <t>5.2 Keyboard appears on screen</t>
+  </si>
+  <si>
+    <t>User types in textbox a review</t>
+  </si>
+  <si>
+    <t>6.1 Characters appear on the screen as user types</t>
+  </si>
+  <si>
+    <t>6.2 System keeps count of how many charcters have been used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3 System prompts a "send review" message for user </t>
+  </si>
+  <si>
+    <t>User clicks "send review"</t>
+  </si>
+  <si>
+    <t>7.1 Review displays on screen and star rating button active</t>
+  </si>
+  <si>
+    <t>User clicks star rating</t>
+  </si>
+  <si>
+    <t>8.1 Rating dialog box displays out of 5 stars</t>
+  </si>
+  <si>
+    <t>User clicks the amount of stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1 Rating is shown with review </t>
+  </si>
+  <si>
+    <t>9.2 Rating of store goes up or down</t>
+  </si>
+  <si>
+    <t>User clicks "done"</t>
+  </si>
+  <si>
+    <t>10.1 Review is sent to store and displays on store reviews tab</t>
+  </si>
+  <si>
+    <t>If user goes over charcter limit, no more characters will be able to be used</t>
+  </si>
+  <si>
+    <t>If user doesn't want to leave a review, a star rating can be used</t>
+  </si>
+  <si>
+    <t>If user does not want to write a review, no review will be made</t>
+  </si>
+  <si>
+    <t>Get Directions</t>
+  </si>
+  <si>
+    <t>Directions appear</t>
+  </si>
+  <si>
+    <t>User clicks on Mapz icon</t>
+  </si>
+  <si>
+    <t>1.1 Google Maps API will appear</t>
+  </si>
+  <si>
+    <t>view store/restaurant/mall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User clicks on search </t>
+  </si>
+  <si>
+    <t>1.2 System uses users location for nearest stores/malls</t>
+  </si>
+  <si>
+    <t>User types specific keywords for mall/store</t>
+  </si>
+  <si>
+    <t>2.1 List of stores/malls appear for user</t>
+  </si>
+  <si>
+    <t>User selects specific store, restaurant or mall</t>
+  </si>
+  <si>
+    <t>3.1 Displays selected store, mall or restaurant info, hours, location, reviews</t>
+  </si>
+  <si>
+    <t>exceptions</t>
+  </si>
+  <si>
+    <t>If user wants to search for mall. Mall hrs, location and reviews will display</t>
+  </si>
+  <si>
+    <t>If user wants to search for a restaraunt. hrs, location, and reviews will display</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -188,13 +305,33 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Sans-serif"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -212,6 +349,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -226,6 +372,18 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -427,6 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -434,8 +593,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="19.75"/>
-    <col customWidth="1" min="2" max="2" width="43.5"/>
-    <col customWidth="1" min="3" max="3" width="30.13"/>
+    <col customWidth="1" min="2" max="2" width="49.25"/>
+    <col customWidth="1" min="3" max="3" width="37.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -474,35 +633,32 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -510,74 +666,61 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12">
+      <c r="A12" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="2" t="s">
-        <v>21</v>
+      <c r="A13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -595,7 +738,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="20.75"/>
     <col customWidth="1" min="2" max="2" width="32.38"/>
-    <col customWidth="1" min="3" max="3" width="22.0"/>
+    <col customWidth="1" min="3" max="3" width="36.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -603,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -619,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -634,46 +777,41 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>1.0</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -681,15 +819,21 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
+      <c r="A11" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -697,10 +841,10 @@
         <v>3.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -708,10 +852,10 @@
         <v>4.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -719,68 +863,48 @@
         <v>5.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
         <v>2.0</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21">
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -788,4 +912,458 @@
   <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.13"/>
+    <col customWidth="1" min="2" max="2" width="59.13"/>
+    <col customWidth="1" min="3" max="3" width="59.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="35.75"/>
+    <col customWidth="1" min="2" max="2" width="43.13"/>
+    <col customWidth="1" min="3" max="3" width="60.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.5"/>
+    <col customWidth="1" min="2" max="2" width="56.88"/>
+    <col customWidth="1" min="3" max="3" width="63.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>